--- a/python/day14/sales_2017.xlsx
+++ b/python/day14/sales_2017.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dowon\Desktop\work\python_class\data_analytics\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\github\python\day14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5D3AD5-9CFD-4221-AC3A-588970D24BE1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="0" windowWidth="21480" windowHeight="13884" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="0" windowWidth="21480" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="january_2017" sheetId="2" r:id="rId1"/>
@@ -149,23 +148,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -199,7 +198,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,23 +475,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -526,7 +525,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2345</v>
       </c>
@@ -543,7 +542,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3456</v>
       </c>
@@ -560,7 +559,7 @@
         <v>42746</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4567</v>
       </c>
@@ -577,7 +576,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5678</v>
       </c>
@@ -594,7 +593,7 @@
         <v>42759</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6789</v>
       </c>
@@ -624,23 +623,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9876</v>
       </c>
@@ -674,7 +673,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8765</v>
       </c>
@@ -691,7 +690,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7654</v>
       </c>
@@ -708,7 +707,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6543</v>
       </c>
@@ -725,7 +724,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5432</v>
       </c>
@@ -742,7 +741,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4321</v>
       </c>
@@ -771,23 +770,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -804,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -821,7 +820,7 @@
         <v>42798</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8765</v>
       </c>
@@ -838,7 +837,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2345</v>
       </c>
@@ -855,7 +854,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6543</v>
       </c>
@@ -872,7 +871,7 @@
         <v>42816</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3456</v>
       </c>
@@ -889,7 +888,7 @@
         <v>42822</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4321</v>
       </c>

--- a/python/day14/sales_2017.xlsx
+++ b/python/day14/sales_2017.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\github\python\day14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dowon\Desktop\work\python_class\data_analytics\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5D3AD5-9CFD-4221-AC3A-588970D24BE1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="0" windowWidth="21480" windowHeight="13890"/>
+    <workbookView xWindow="4500" yWindow="0" windowWidth="21480" windowHeight="13884" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="january_2017" sheetId="2" r:id="rId1"/>
@@ -148,23 +149,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -198,7 +199,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,23 +476,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -525,7 +526,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2345</v>
       </c>
@@ -542,7 +543,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3456</v>
       </c>
@@ -559,7 +560,7 @@
         <v>42746</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4567</v>
       </c>
@@ -576,7 +577,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5678</v>
       </c>
@@ -593,7 +594,7 @@
         <v>42759</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6789</v>
       </c>
@@ -623,23 +624,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>9876</v>
       </c>
@@ -673,7 +674,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>8765</v>
       </c>
@@ -690,7 +691,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>7654</v>
       </c>
@@ -707,7 +708,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>6543</v>
       </c>
@@ -724,7 +725,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5432</v>
       </c>
@@ -741,7 +742,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4321</v>
       </c>
@@ -770,23 +771,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -820,7 +821,7 @@
         <v>42798</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>8765</v>
       </c>
@@ -837,7 +838,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2345</v>
       </c>
@@ -854,7 +855,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>6543</v>
       </c>
@@ -871,7 +872,7 @@
         <v>42816</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3456</v>
       </c>
@@ -888,7 +889,7 @@
         <v>42822</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4321</v>
       </c>
